--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2458.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2458.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.082609642121223</v>
+        <v>1.718438863754272</v>
       </c>
       <c r="B1">
-        <v>2.378630313795792</v>
+        <v>2.300286054611206</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.355501413345337</v>
       </c>
       <c r="D1">
-        <v>3.059780341916189</v>
+        <v>4.116728782653809</v>
       </c>
       <c r="E1">
-        <v>0.9616181795113495</v>
+        <v>0.6514696478843689</v>
       </c>
     </row>
   </sheetData>
